--- a/protection-level-messages.xlsx
+++ b/protection-level-messages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nrobin/Box/Projet Chatbot/Development/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A75803-B1EF-6C4A-B2B9-9619E2FC51AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AB3DFC-D6DE-814C-916E-9C132CECE6F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="2480" windowWidth="31400" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -971,7 +971,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="51.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
